--- a/197industry/197-Industry-Groups-20220307.xlsx
+++ b/197industry/197-Industry-Groups-20220307.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae926d26bf656891/2.Python/stock_tracker/197industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{EB9012D1-2405-4F4C-816C-6F3494324F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F75F2304-1EC8-F74C-BA18-9938437EACFD}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{EB9012D1-2405-4F4C-816C-6F3494324F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C49984A8-3258-4944-B553-45A99DC8F827}"/>
   <bookViews>
-    <workbookView xWindow="18060" yWindow="2720" windowWidth="30240" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23540" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -2941,10 +2941,10 @@
   <dimension ref="A1:CL358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E160" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AQ160" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:C198"/>
+      <selection pane="bottomRight" sqref="A1:AY198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -69873,6 +69873,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C46C030964D1664A9836829070CA99F4" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ffb2d840ef7fa85e529023b26501332a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4eaee834-d695-49c0-bd42-30ebe919a0fe" xmlns:ns4="6a2cb9e6-b5e1-40b7-9637-1eba5574d408" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c75190740113993d0a4ad2c4c11cd28" ns3:_="" ns4:_="">
     <xsd:import namespace="4eaee834-d695-49c0-bd42-30ebe919a0fe"/>
@@ -70057,12 +70063,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EADA556F-E65B-497C-A690-1DD14EB363E1}">
   <ds:schemaRefs>
@@ -70072,6 +70072,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95408CEA-6C8D-4E5E-A627-F5167FA05784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6a2cb9e6-b5e1-40b7-9637-1eba5574d408"/>
+    <ds:schemaRef ds:uri="4eaee834-d695-49c0-bd42-30ebe919a0fe"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1F23E1-A882-4F1F-A63E-681B2706DE10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -70088,21 +70105,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95408CEA-6C8D-4E5E-A627-F5167FA05784}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6a2cb9e6-b5e1-40b7-9637-1eba5574d408"/>
-    <ds:schemaRef ds:uri="4eaee834-d695-49c0-bd42-30ebe919a0fe"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>